--- a/for 반복문 풀이1.xlsx
+++ b/for 반복문 풀이1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +257,66 @@
   </si>
   <si>
     <t>제 12 회</t>
+  </si>
+  <si>
+    <t>홀수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2 했을 때 정수 값, 0안에 2가 몇번들어있느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나누었을때 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x / 2 했을때 x-2 하고 남은 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x % 2 == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,6 +604,44 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5686425" cy="6897965"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5686425" cy="6897965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1255,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -1658,4 +1757,1797 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L1:Z103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="11" width="3" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.625" customWidth="1"/>
+    <col min="25" max="25" width="27.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>SUM(T2)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="Z4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f>SUM(O2,N5)</f>
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="e">
+        <f>ㅌ</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>30</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>36</v>
+      </c>
+      <c r="W14">
+        <v>9</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>32</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <v>49</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="T17">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>14</v>
+      </c>
+      <c r="T18">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>64</v>
+      </c>
+      <c r="W18">
+        <v>13</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>62</v>
+      </c>
+      <c r="S19">
+        <v>15</v>
+      </c>
+      <c r="T19">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>14</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>17</v>
+      </c>
+      <c r="U20">
+        <v>81</v>
+      </c>
+      <c r="W20">
+        <v>15</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>80</v>
+      </c>
+      <c r="S21">
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>16</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>19</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>17</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>18</v>
+      </c>
+      <c r="X23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>20</v>
+      </c>
+      <c r="T24">
+        <v>21</v>
+      </c>
+      <c r="U24">
+        <v>121</v>
+      </c>
+      <c r="W24">
+        <v>19</v>
+      </c>
+      <c r="X24">
+        <v>9</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>22</v>
+      </c>
+      <c r="O25">
+        <v>122</v>
+      </c>
+      <c r="S25">
+        <v>21</v>
+      </c>
+      <c r="T25">
+        <v>22</v>
+      </c>
+      <c r="W25">
+        <v>20</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <v>22</v>
+      </c>
+      <c r="T26">
+        <v>23</v>
+      </c>
+      <c r="U26">
+        <f>SUM(U24,T26)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>24</v>
+      </c>
+      <c r="O27">
+        <f>SUM(O25,N27)</f>
+        <v>146</v>
+      </c>
+      <c r="S27">
+        <v>23</v>
+      </c>
+      <c r="T27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>24</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="S28">
+        <v>24</v>
+      </c>
+      <c r="T28">
+        <v>25</v>
+      </c>
+      <c r="U28">
+        <f>SUM(U26,T28)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>26</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O27,N29)</f>
+        <v>172</v>
+      </c>
+      <c r="S29">
+        <v>25</v>
+      </c>
+      <c r="T29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="S30">
+        <v>26</v>
+      </c>
+      <c r="T30">
+        <v>27</v>
+      </c>
+      <c r="U30">
+        <f>SUM(U28,T30)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>28</v>
+      </c>
+      <c r="O31">
+        <f>SUM(O29,N31)</f>
+        <v>200</v>
+      </c>
+      <c r="S31">
+        <v>27</v>
+      </c>
+      <c r="T31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="13:25" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>28</v>
+      </c>
+      <c r="T32">
+        <v>29</v>
+      </c>
+      <c r="U32">
+        <f>SUM(U30,T32)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <f>SUM(O31,N33)</f>
+        <v>230</v>
+      </c>
+      <c r="S33">
+        <v>29</v>
+      </c>
+      <c r="T33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <v>30</v>
+      </c>
+      <c r="T34">
+        <v>31</v>
+      </c>
+      <c r="U34">
+        <f>SUM(U32,T34)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>32</v>
+      </c>
+      <c r="O35">
+        <f>SUM(O33,N35)</f>
+        <v>262</v>
+      </c>
+      <c r="S35">
+        <v>31</v>
+      </c>
+      <c r="T35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>33</v>
+      </c>
+      <c r="S36">
+        <v>32</v>
+      </c>
+      <c r="T36">
+        <v>33</v>
+      </c>
+      <c r="U36">
+        <f>SUM(U34,T36)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+      <c r="S37">
+        <v>33</v>
+      </c>
+      <c r="T37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>34</v>
+      </c>
+      <c r="N38">
+        <v>35</v>
+      </c>
+      <c r="S38">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <v>36</v>
+      </c>
+      <c r="S39">
+        <v>35</v>
+      </c>
+      <c r="T39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>37</v>
+      </c>
+      <c r="S40">
+        <v>36</v>
+      </c>
+      <c r="T40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>38</v>
+      </c>
+      <c r="S41">
+        <v>37</v>
+      </c>
+      <c r="T41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>39</v>
+      </c>
+      <c r="S42">
+        <v>38</v>
+      </c>
+      <c r="T42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>39</v>
+      </c>
+      <c r="N43">
+        <v>40</v>
+      </c>
+      <c r="S43">
+        <v>39</v>
+      </c>
+      <c r="T43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>40</v>
+      </c>
+      <c r="N44">
+        <v>41</v>
+      </c>
+      <c r="S44">
+        <v>40</v>
+      </c>
+      <c r="T44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>41</v>
+      </c>
+      <c r="N45">
+        <v>42</v>
+      </c>
+      <c r="S45">
+        <v>41</v>
+      </c>
+      <c r="T45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>42</v>
+      </c>
+      <c r="N46">
+        <v>43</v>
+      </c>
+      <c r="S46">
+        <v>42</v>
+      </c>
+      <c r="T46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>43</v>
+      </c>
+      <c r="N47">
+        <v>44</v>
+      </c>
+      <c r="S47">
+        <v>43</v>
+      </c>
+      <c r="T47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>44</v>
+      </c>
+      <c r="N48">
+        <v>45</v>
+      </c>
+      <c r="S48">
+        <v>44</v>
+      </c>
+      <c r="T48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>45</v>
+      </c>
+      <c r="N49">
+        <v>46</v>
+      </c>
+      <c r="S49">
+        <v>45</v>
+      </c>
+      <c r="T49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>46</v>
+      </c>
+      <c r="N50">
+        <v>47</v>
+      </c>
+      <c r="S50">
+        <v>46</v>
+      </c>
+      <c r="T50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>47</v>
+      </c>
+      <c r="N51">
+        <v>48</v>
+      </c>
+      <c r="S51">
+        <v>47</v>
+      </c>
+      <c r="T51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>48</v>
+      </c>
+      <c r="N52">
+        <v>49</v>
+      </c>
+      <c r="S52">
+        <v>48</v>
+      </c>
+      <c r="T52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>49</v>
+      </c>
+      <c r="N53">
+        <v>50</v>
+      </c>
+      <c r="S53">
+        <v>49</v>
+      </c>
+      <c r="T53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>51</v>
+      </c>
+      <c r="S54">
+        <v>50</v>
+      </c>
+      <c r="T54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>51</v>
+      </c>
+      <c r="N55">
+        <v>52</v>
+      </c>
+      <c r="S55">
+        <v>51</v>
+      </c>
+      <c r="T55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>52</v>
+      </c>
+      <c r="N56">
+        <v>53</v>
+      </c>
+      <c r="S56">
+        <v>52</v>
+      </c>
+      <c r="T56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>53</v>
+      </c>
+      <c r="N57">
+        <v>54</v>
+      </c>
+      <c r="S57">
+        <v>53</v>
+      </c>
+      <c r="T57">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>54</v>
+      </c>
+      <c r="N58">
+        <v>55</v>
+      </c>
+      <c r="S58">
+        <v>54</v>
+      </c>
+      <c r="T58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>55</v>
+      </c>
+      <c r="N59">
+        <v>56</v>
+      </c>
+      <c r="S59">
+        <v>55</v>
+      </c>
+      <c r="T59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>56</v>
+      </c>
+      <c r="N60">
+        <v>57</v>
+      </c>
+      <c r="S60">
+        <v>56</v>
+      </c>
+      <c r="T60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>57</v>
+      </c>
+      <c r="N61">
+        <v>58</v>
+      </c>
+      <c r="S61">
+        <v>57</v>
+      </c>
+      <c r="T61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>58</v>
+      </c>
+      <c r="N62">
+        <v>59</v>
+      </c>
+      <c r="S62">
+        <v>58</v>
+      </c>
+      <c r="T62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>59</v>
+      </c>
+      <c r="N63">
+        <v>60</v>
+      </c>
+      <c r="S63">
+        <v>59</v>
+      </c>
+      <c r="T63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>60</v>
+      </c>
+      <c r="N64">
+        <v>61</v>
+      </c>
+      <c r="S64">
+        <v>60</v>
+      </c>
+      <c r="T64">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>61</v>
+      </c>
+      <c r="N65">
+        <v>62</v>
+      </c>
+      <c r="S65">
+        <v>61</v>
+      </c>
+      <c r="T65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>62</v>
+      </c>
+      <c r="N66">
+        <v>63</v>
+      </c>
+      <c r="S66">
+        <v>62</v>
+      </c>
+      <c r="T66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>63</v>
+      </c>
+      <c r="N67">
+        <v>64</v>
+      </c>
+      <c r="S67">
+        <v>63</v>
+      </c>
+      <c r="T67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>64</v>
+      </c>
+      <c r="N68">
+        <v>65</v>
+      </c>
+      <c r="S68">
+        <v>64</v>
+      </c>
+      <c r="T68">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>65</v>
+      </c>
+      <c r="N69">
+        <v>66</v>
+      </c>
+      <c r="S69">
+        <v>65</v>
+      </c>
+      <c r="T69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>66</v>
+      </c>
+      <c r="N70">
+        <v>67</v>
+      </c>
+      <c r="S70">
+        <v>66</v>
+      </c>
+      <c r="T70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>67</v>
+      </c>
+      <c r="N71">
+        <v>68</v>
+      </c>
+      <c r="S71">
+        <v>67</v>
+      </c>
+      <c r="T71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>68</v>
+      </c>
+      <c r="N72">
+        <v>69</v>
+      </c>
+      <c r="S72">
+        <v>68</v>
+      </c>
+      <c r="T72">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>69</v>
+      </c>
+      <c r="N73">
+        <v>70</v>
+      </c>
+      <c r="S73">
+        <v>69</v>
+      </c>
+      <c r="T73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>70</v>
+      </c>
+      <c r="N74">
+        <v>71</v>
+      </c>
+      <c r="S74">
+        <v>70</v>
+      </c>
+      <c r="T74">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>71</v>
+      </c>
+      <c r="N75">
+        <v>72</v>
+      </c>
+      <c r="S75">
+        <v>71</v>
+      </c>
+      <c r="T75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>72</v>
+      </c>
+      <c r="N76">
+        <v>73</v>
+      </c>
+      <c r="S76">
+        <v>72</v>
+      </c>
+      <c r="T76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>73</v>
+      </c>
+      <c r="N77">
+        <v>74</v>
+      </c>
+      <c r="S77">
+        <v>73</v>
+      </c>
+      <c r="T77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>74</v>
+      </c>
+      <c r="N78">
+        <v>75</v>
+      </c>
+      <c r="S78">
+        <v>74</v>
+      </c>
+      <c r="T78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>75</v>
+      </c>
+      <c r="N79">
+        <v>76</v>
+      </c>
+      <c r="S79">
+        <v>75</v>
+      </c>
+      <c r="T79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>76</v>
+      </c>
+      <c r="N80">
+        <v>77</v>
+      </c>
+      <c r="S80">
+        <v>76</v>
+      </c>
+      <c r="T80">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>77</v>
+      </c>
+      <c r="N81">
+        <v>78</v>
+      </c>
+      <c r="S81">
+        <v>77</v>
+      </c>
+      <c r="T81">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>78</v>
+      </c>
+      <c r="N82">
+        <v>79</v>
+      </c>
+      <c r="S82">
+        <v>78</v>
+      </c>
+      <c r="T82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>79</v>
+      </c>
+      <c r="N83">
+        <v>80</v>
+      </c>
+      <c r="S83">
+        <v>79</v>
+      </c>
+      <c r="T83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>80</v>
+      </c>
+      <c r="N84">
+        <v>81</v>
+      </c>
+      <c r="S84">
+        <v>80</v>
+      </c>
+      <c r="T84">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>81</v>
+      </c>
+      <c r="N85">
+        <v>82</v>
+      </c>
+      <c r="S85">
+        <v>81</v>
+      </c>
+      <c r="T85">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>82</v>
+      </c>
+      <c r="N86">
+        <v>83</v>
+      </c>
+      <c r="S86">
+        <v>82</v>
+      </c>
+      <c r="T86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>83</v>
+      </c>
+      <c r="N87">
+        <v>84</v>
+      </c>
+      <c r="S87">
+        <v>83</v>
+      </c>
+      <c r="T87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>84</v>
+      </c>
+      <c r="N88">
+        <v>85</v>
+      </c>
+      <c r="S88">
+        <v>84</v>
+      </c>
+      <c r="T88">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>85</v>
+      </c>
+      <c r="N89">
+        <v>86</v>
+      </c>
+      <c r="S89">
+        <v>85</v>
+      </c>
+      <c r="T89">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>86</v>
+      </c>
+      <c r="N90">
+        <v>87</v>
+      </c>
+      <c r="S90">
+        <v>86</v>
+      </c>
+      <c r="T90">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>87</v>
+      </c>
+      <c r="N91">
+        <v>88</v>
+      </c>
+      <c r="S91">
+        <v>87</v>
+      </c>
+      <c r="T91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>88</v>
+      </c>
+      <c r="N92">
+        <v>89</v>
+      </c>
+      <c r="S92">
+        <v>88</v>
+      </c>
+      <c r="T92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>89</v>
+      </c>
+      <c r="N93">
+        <v>90</v>
+      </c>
+      <c r="S93">
+        <v>89</v>
+      </c>
+      <c r="T93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>90</v>
+      </c>
+      <c r="N94">
+        <v>91</v>
+      </c>
+      <c r="S94">
+        <v>90</v>
+      </c>
+      <c r="T94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>91</v>
+      </c>
+      <c r="N95">
+        <v>92</v>
+      </c>
+      <c r="S95">
+        <v>91</v>
+      </c>
+      <c r="T95">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>92</v>
+      </c>
+      <c r="N96">
+        <v>93</v>
+      </c>
+      <c r="S96">
+        <v>92</v>
+      </c>
+      <c r="T96">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>93</v>
+      </c>
+      <c r="N97">
+        <v>94</v>
+      </c>
+      <c r="S97">
+        <v>93</v>
+      </c>
+      <c r="T97">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>94</v>
+      </c>
+      <c r="N98">
+        <v>95</v>
+      </c>
+      <c r="S98">
+        <v>94</v>
+      </c>
+      <c r="T98">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>95</v>
+      </c>
+      <c r="N99">
+        <v>96</v>
+      </c>
+      <c r="S99">
+        <v>95</v>
+      </c>
+      <c r="T99">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>96</v>
+      </c>
+      <c r="N100">
+        <v>97</v>
+      </c>
+      <c r="S100">
+        <v>96</v>
+      </c>
+      <c r="T100">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>97</v>
+      </c>
+      <c r="N101">
+        <v>98</v>
+      </c>
+      <c r="S101">
+        <v>97</v>
+      </c>
+      <c r="T101">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>98</v>
+      </c>
+      <c r="N102">
+        <v>99</v>
+      </c>
+      <c r="S102">
+        <v>98</v>
+      </c>
+      <c r="T102">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="13:20" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>99</v>
+      </c>
+      <c r="N103">
+        <v>100</v>
+      </c>
+      <c r="S103">
+        <v>99</v>
+      </c>
+      <c r="T103">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>